--- a/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/Documents/Projects/CMS/Inspec/STIG_Profiles/microsoft-windows-server-2016/cms-ars-3.1-high-microsoft-windows-server-2016-stig-overlay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/Documents/Projects/CMS/Inspec/STIG_Profiles/microsoft-windows-server-2016/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F14AC61D-CBF5-FC42-AA94-A5AFC82DBC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612E1DA-24B5-1849-A796-17F96FD5E730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44260" yWindow="7760" windowWidth="38880" windowHeight="22960"/>
+    <workbookView xWindow="44260" yWindow="5840" windowWidth="38880" windowHeight="22960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-high-microsoft-wind" sheetId="1" r:id="rId1"/>
+    <sheet name="DELETE_THIS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cms-ars-3.1-high-microsoft-wind'!$A$1:$AD$273</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="3181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="3184">
   <si>
     <t>descriptions</t>
   </si>
@@ -28559,12 +28560,52 @@
   <si>
     <t>NOTES</t>
   </si>
+  <si>
+    <t>(not in ARS)
+Add to Overlay:
+desc, 'caveat', 'Not applicable for this CMS ARS 3.1 overlay, since the related security control is not included in CMS ARS 3.1'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(not in ARS)
+Add to Overlay:
+desc, 'caveat', 'Not applicable for this CMS ARS 3.1 overlay, since the related security control is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not applied to this system categorization</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in CMS ARS 3.1'</t>
+    </r>
+  </si>
+  <si>
+    <t>describe "For this CMS ARS 3.1 overlay, this control must be reviewed manually" do 
+skip "For this CMS ARS 3.1 overlay, this control must be reviewed manually"
+end</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28706,8 +28747,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -28887,8 +28945,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -29003,6 +29067,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -29048,7 +29140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -29063,6 +29155,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -29417,10 +29515,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -29530,7 +29628,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -29596,7 +29694,7 @@
       </c>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -29664,7 +29762,7 @@
       </c>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -47639,7 +47737,33 @@
       <c r="AD273" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD273"/>
+  <autoFilter ref="A1:AD273" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF8A3CF-EF91-324B-8B76-2D2A11D3D61D}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/Documents/Projects/CMS/Inspec/STIG_Profiles/microsoft-windows-server-2016/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A732D0-1E83-3941-886B-E3590B0B8F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3566D23-E20E-A046-8F67-A1E349F59597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68000" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-high-microsoft-wind" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4520" uniqueCount="3187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="3187">
   <si>
     <t>descriptions</t>
   </si>
@@ -31196,7 +31196,40 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -31506,12 +31539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32228,43 +32260,43 @@
       </c>
       <c r="AE10" s="14"/>
     </row>
-    <row r="11" spans="1:31" ht="409.6" hidden="1">
-      <c r="A11" s="20" t="s">
-        <v>2043</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:31" ht="409.6">
+      <c r="A11" s="10" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>3152</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>2041</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>794</v>
+      <c r="D11" s="4" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2670</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>795</v>
+        <v>2671</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>2042</v>
+        <v>2672</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>2043</v>
+        <v>2673</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>2044</v>
+        <v>2674</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>2045</v>
+        <v>2675</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>2046</v>
+        <v>2676</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -32276,27 +32308,27 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="19" t="s">
-        <v>2047</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>2048</v>
+      <c r="X11" s="4" t="s">
+        <v>2679</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>2680</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>2049</v>
+        <v>2681</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>2050</v>
+        <v>2682</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="AD11" s="19" t="s">
-        <v>802</v>
+        <v>2677</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>2678</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>3140</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="409.6">
@@ -33190,9 +33222,9 @@
       </c>
       <c r="AE24" s="14"/>
     </row>
-    <row r="25" spans="1:31" ht="409.6" hidden="1">
+    <row r="25" spans="1:31" ht="409.6">
       <c r="A25" s="20" t="s">
-        <v>797</v>
+        <v>3065</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>3152</v>
@@ -33201,32 +33233,32 @@
         <v>0</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>793</v>
+        <v>3061</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>794</v>
+        <v>3062</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>795</v>
+        <v>3063</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>796</v>
+        <v>3064</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>797</v>
+        <v>3065</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>798</v>
+        <v>3066</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>799</v>
+        <v>3067</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>800</v>
+        <v>3068</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -33239,23 +33271,23 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="19" t="s">
-        <v>803</v>
+        <v>3071</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>804</v>
+        <v>3072</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>805</v>
+        <v>3073</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>806</v>
+        <v>3074</v>
       </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="4" t="s">
-        <v>801</v>
+        <v>3069</v>
       </c>
       <c r="AD25" s="19" t="s">
-        <v>802</v>
+        <v>3070</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>3140</v>
@@ -33464,43 +33496,43 @@
       </c>
       <c r="AE28" s="14"/>
     </row>
-    <row r="29" spans="1:31" ht="409.6" hidden="1">
-      <c r="A29" s="20" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="1:31" ht="409.6">
+      <c r="A29" s="10" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>3152</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="12">
         <v>0</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>2519</v>
+      <c r="D29" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2992</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>2520</v>
+        <v>2993</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>1613</v>
+        <v>2994</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>2521</v>
+        <v>2995</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>2522</v>
+        <v>2996</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>2523</v>
+        <v>2997</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>2524</v>
+        <v>2998</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -33512,27 +33544,29 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="19" t="s">
-        <v>2525</v>
-      </c>
-      <c r="Y29" s="19" t="s">
-        <v>2526</v>
+      <c r="X29" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>3002</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>2527</v>
+        <v>3003</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>2528</v>
-      </c>
-      <c r="AB29" s="3"/>
+        <v>3004</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>3005</v>
+      </c>
       <c r="AC29" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="AD29" s="19" t="s">
-        <v>1619</v>
+        <v>2999</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>3000</v>
       </c>
       <c r="AE29" s="12" t="s">
-        <v>3140</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="409.6">
@@ -36643,9 +36677,9 @@
       </c>
       <c r="AE75" s="14"/>
     </row>
-    <row r="76" spans="1:31" ht="409.6" hidden="1">
+    <row r="76" spans="1:31" ht="409.6">
       <c r="A76" s="20" t="s">
-        <v>1614</v>
+        <v>2043</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>3152</v>
@@ -36654,32 +36688,32 @@
         <v>0</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>1610</v>
+        <v>2041</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>1611</v>
+        <v>794</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1612</v>
+        <v>795</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3" t="s">
-        <v>1613</v>
+        <v>2042</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1614</v>
+        <v>2043</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1615</v>
+        <v>2044</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>1616</v>
+        <v>2045</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>1617</v>
+        <v>2046</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -36692,31 +36726,31 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="19" t="s">
-        <v>1620</v>
+        <v>2047</v>
       </c>
       <c r="Y76" s="19" t="s">
-        <v>1621</v>
+        <v>2048</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>1622</v>
+        <v>2049</v>
       </c>
       <c r="AA76" s="3" t="s">
-        <v>1623</v>
+        <v>2050</v>
       </c>
       <c r="AB76" s="3"/>
       <c r="AC76" s="4" t="s">
-        <v>1618</v>
+        <v>801</v>
       </c>
       <c r="AD76" s="19" t="s">
-        <v>1619</v>
+        <v>802</v>
       </c>
       <c r="AE76" s="12" t="s">
         <v>3140</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="409.6" hidden="1">
+    <row r="77" spans="1:31" ht="409.6">
       <c r="A77" s="20" t="s">
-        <v>3065</v>
+        <v>797</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>3152</v>
@@ -36725,32 +36759,32 @@
         <v>0</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>3061</v>
+        <v>793</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>3062</v>
+        <v>794</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>3063</v>
+        <v>795</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3" t="s">
-        <v>3064</v>
+        <v>796</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>3065</v>
+        <v>797</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>3066</v>
+        <v>798</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>3067</v>
+        <v>799</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>3068</v>
+        <v>800</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -36763,23 +36797,23 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="19" t="s">
-        <v>3071</v>
+        <v>803</v>
       </c>
       <c r="Y77" s="19" t="s">
-        <v>3072</v>
+        <v>804</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>3073</v>
+        <v>805</v>
       </c>
       <c r="AA77" s="3" t="s">
-        <v>3074</v>
+        <v>806</v>
       </c>
       <c r="AB77" s="3"/>
       <c r="AC77" s="4" t="s">
-        <v>3069</v>
+        <v>801</v>
       </c>
       <c r="AD77" s="19" t="s">
-        <v>3070</v>
+        <v>802</v>
       </c>
       <c r="AE77" s="12" t="s">
         <v>3140</v>
@@ -40948,43 +40982,43 @@
       </c>
       <c r="AE138" s="14"/>
     </row>
-    <row r="139" spans="1:31" ht="409.6" hidden="1">
-      <c r="A139" s="10" t="s">
-        <v>2673</v>
-      </c>
-      <c r="B139" s="12" t="s">
+    <row r="139" spans="1:31" ht="409.6">
+      <c r="A139" s="20" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B139" s="22" t="s">
         <v>3152</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="22">
         <v>0</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>2669</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>2670</v>
+      <c r="D139" s="19" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>2028</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>2671</v>
+        <v>2029</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3" t="s">
-        <v>2672</v>
+        <v>2030</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>2673</v>
+        <v>2031</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>2674</v>
+        <v>2032</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>2675</v>
+        <v>2033</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>2676</v>
+        <v>2034</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -40996,27 +41030,27 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
-      <c r="X139" s="4" t="s">
-        <v>2679</v>
-      </c>
-      <c r="Y139" s="4" t="s">
-        <v>2680</v>
+      <c r="X139" s="19" t="s">
+        <v>2037</v>
+      </c>
+      <c r="Y139" s="19" t="s">
+        <v>2038</v>
       </c>
       <c r="Z139" s="4" t="s">
-        <v>2681</v>
+        <v>2039</v>
       </c>
       <c r="AA139" s="3" t="s">
-        <v>2682</v>
+        <v>2040</v>
       </c>
       <c r="AB139" s="3"/>
       <c r="AC139" s="4" t="s">
-        <v>2677</v>
-      </c>
-      <c r="AD139" s="4" t="s">
-        <v>2678</v>
+        <v>2035</v>
+      </c>
+      <c r="AD139" s="19" t="s">
+        <v>2036</v>
       </c>
       <c r="AE139" s="12" t="s">
-        <v>3151</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="140" spans="1:31" ht="409.6">
@@ -41823,7 +41857,7 @@
       </c>
       <c r="AE151" s="14"/>
     </row>
-    <row r="152" spans="1:31" ht="409.6" hidden="1">
+    <row r="152" spans="1:31" ht="409.6">
       <c r="A152" s="20" t="s">
         <v>656</v>
       </c>
@@ -41963,7 +41997,7 @@
       </c>
       <c r="AE153" s="14"/>
     </row>
-    <row r="154" spans="1:31" ht="409.6" hidden="1">
+    <row r="154" spans="1:31" ht="409.6">
       <c r="A154" s="20" t="s">
         <v>1792</v>
       </c>
@@ -42371,9 +42405,9 @@
       </c>
       <c r="AE159" s="14"/>
     </row>
-    <row r="160" spans="1:31" ht="409.6" hidden="1">
+    <row r="160" spans="1:31" ht="409.6">
       <c r="A160" s="20" t="s">
-        <v>1745</v>
+        <v>2521</v>
       </c>
       <c r="B160" s="22" t="s">
         <v>3152</v>
@@ -42382,32 +42416,32 @@
         <v>0</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>1742</v>
+        <v>2518</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>1743</v>
+        <v>2519</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1744</v>
+        <v>2520</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3" t="s">
-        <v>655</v>
+        <v>1613</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>1745</v>
+        <v>2521</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>1746</v>
+        <v>2522</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>1747</v>
+        <v>2523</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>1748</v>
+        <v>2524</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -42420,33 +42454,31 @@
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
       <c r="X160" s="19" t="s">
-        <v>1749</v>
+        <v>2525</v>
       </c>
       <c r="Y160" s="19" t="s">
-        <v>1750</v>
+        <v>2526</v>
       </c>
       <c r="Z160" s="4" t="s">
-        <v>1751</v>
+        <v>2527</v>
       </c>
       <c r="AA160" s="3" t="s">
-        <v>1752</v>
-      </c>
-      <c r="AB160" s="3" t="s">
-        <v>666</v>
-      </c>
+        <v>2528</v>
+      </c>
+      <c r="AB160" s="3"/>
       <c r="AC160" s="4" t="s">
-        <v>660</v>
+        <v>1618</v>
       </c>
       <c r="AD160" s="19" t="s">
-        <v>661</v>
+        <v>1619</v>
       </c>
       <c r="AE160" s="12" t="s">
         <v>3140</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="409.6" hidden="1">
+    <row r="161" spans="1:31" ht="409.6">
       <c r="A161" s="20" t="s">
-        <v>2319</v>
+        <v>1614</v>
       </c>
       <c r="B161" s="22" t="s">
         <v>3152</v>
@@ -42455,32 +42487,32 @@
         <v>0</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>2316</v>
+        <v>1610</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>2317</v>
+        <v>1611</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>2318</v>
+        <v>1612</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="3" t="s">
-        <v>655</v>
+        <v>1613</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>2319</v>
+        <v>1614</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>2320</v>
+        <v>1615</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>2321</v>
+        <v>1616</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>2322</v>
+        <v>1617</v>
       </c>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -42493,25 +42525,23 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
       <c r="X161" s="19" t="s">
-        <v>2323</v>
+        <v>1620</v>
       </c>
       <c r="Y161" s="19" t="s">
-        <v>2324</v>
+        <v>1621</v>
       </c>
       <c r="Z161" s="4" t="s">
-        <v>2325</v>
+        <v>1622</v>
       </c>
       <c r="AA161" s="3" t="s">
-        <v>2326</v>
-      </c>
-      <c r="AB161" s="3" t="s">
-        <v>666</v>
-      </c>
+        <v>1623</v>
+      </c>
+      <c r="AB161" s="3"/>
       <c r="AC161" s="4" t="s">
-        <v>660</v>
+        <v>1618</v>
       </c>
       <c r="AD161" s="19" t="s">
-        <v>661</v>
+        <v>1619</v>
       </c>
       <c r="AE161" s="12" t="s">
         <v>3140</v>
@@ -42785,43 +42815,43 @@
       </c>
       <c r="AE165" s="14"/>
     </row>
-    <row r="166" spans="1:31" ht="409.6" hidden="1">
-      <c r="A166" s="20" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B166" s="22" t="s">
+    <row r="166" spans="1:31" ht="409.6">
+      <c r="A166" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B166" s="12" t="s">
         <v>3152</v>
       </c>
-      <c r="C166" s="22">
+      <c r="C166" s="12">
         <v>0</v>
       </c>
-      <c r="D166" s="19" t="s">
-        <v>2449</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>2450</v>
+      <c r="D166" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>1015</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>2451</v>
+        <v>1016</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3" t="s">
-        <v>655</v>
+        <v>1017</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>2452</v>
+        <v>1485</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>2453</v>
+        <v>1486</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>2454</v>
+        <v>1487</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>2455</v>
+        <v>1488</v>
       </c>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
@@ -42833,29 +42863,29 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
-      <c r="X166" s="19" t="s">
-        <v>2456</v>
-      </c>
-      <c r="Y166" s="19" t="s">
-        <v>2457</v>
+      <c r="X166" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Y166" s="4" t="s">
+        <v>1490</v>
       </c>
       <c r="Z166" s="4" t="s">
-        <v>2458</v>
+        <v>1491</v>
       </c>
       <c r="AA166" s="3" t="s">
-        <v>2459</v>
+        <v>1492</v>
       </c>
       <c r="AB166" s="3" t="s">
-        <v>666</v>
+        <v>1028</v>
       </c>
       <c r="AC166" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD166" s="19" t="s">
-        <v>661</v>
+        <v>1022</v>
+      </c>
+      <c r="AD166" s="4" t="s">
+        <v>1023</v>
       </c>
       <c r="AE166" s="12" t="s">
-        <v>3140</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="167" spans="1:31" ht="409.6">
@@ -42992,43 +43022,43 @@
       </c>
       <c r="AE168" s="14"/>
     </row>
-    <row r="169" spans="1:31" ht="409.6" hidden="1">
-      <c r="A169" s="20" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B169" s="22" t="s">
+    <row r="169" spans="1:31" ht="409.6">
+      <c r="A169" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>3152</v>
       </c>
-      <c r="C169" s="22">
+      <c r="C169" s="12">
         <v>0</v>
       </c>
-      <c r="D169" s="19" t="s">
-        <v>2960</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>2961</v>
+      <c r="D169" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>1015</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>2962</v>
+        <v>1016</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3" t="s">
-        <v>655</v>
+        <v>1017</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>2963</v>
+        <v>1018</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>2964</v>
+        <v>1019</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>2965</v>
+        <v>1020</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>2966</v>
+        <v>1021</v>
       </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
@@ -43040,66 +43070,68 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
-      <c r="X169" s="19" t="s">
-        <v>2967</v>
-      </c>
-      <c r="Y169" s="19" t="s">
-        <v>2968</v>
+      <c r="X169" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y169" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="Z169" s="4" t="s">
-        <v>2969</v>
+        <v>1026</v>
       </c>
       <c r="AA169" s="3" t="s">
-        <v>2970</v>
+        <v>1027</v>
       </c>
       <c r="AB169" s="3" t="s">
-        <v>666</v>
+        <v>1028</v>
       </c>
       <c r="AC169" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD169" s="19" t="s">
-        <v>661</v>
+        <v>1022</v>
+      </c>
+      <c r="AD169" s="4" t="s">
+        <v>1023</v>
       </c>
       <c r="AE169" s="12" t="s">
-        <v>3140</v>
+        <v>3151</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="409.6" hidden="1">
+    <row r="170" spans="1:31" ht="409.6">
       <c r="A170" s="20" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B170" s="15"/>
-      <c r="C170" s="15">
-        <v>0.5</v>
+        <v>1745</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C170" s="22">
+        <v>0</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2027</v>
+        <v>1742</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>2028</v>
+        <v>1743</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>2029</v>
+        <v>1744</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3" t="s">
-        <v>2030</v>
+        <v>655</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>2031</v>
+        <v>1745</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>2032</v>
+        <v>1746</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>2033</v>
+        <v>1747</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>2034</v>
+        <v>1748</v>
       </c>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
@@ -43112,113 +43144,117 @@
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
       <c r="X170" s="19" t="s">
-        <v>2037</v>
+        <v>1749</v>
       </c>
       <c r="Y170" s="19" t="s">
-        <v>2038</v>
+        <v>1750</v>
       </c>
       <c r="Z170" s="4" t="s">
-        <v>2039</v>
+        <v>1751</v>
       </c>
       <c r="AA170" s="3" t="s">
-        <v>2040</v>
-      </c>
-      <c r="AB170" s="3"/>
+        <v>1752</v>
+      </c>
+      <c r="AB170" s="3" t="s">
+        <v>666</v>
+      </c>
       <c r="AC170" s="4" t="s">
-        <v>2035</v>
+        <v>660</v>
       </c>
       <c r="AD170" s="19" t="s">
-        <v>2036</v>
+        <v>661</v>
       </c>
       <c r="AE170" s="12" t="s">
         <v>3140</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="409.6" hidden="1">
-      <c r="A171" s="20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15">
+    <row r="171" spans="1:31" ht="409.6">
+      <c r="A171" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3">
         <v>0.5</v>
       </c>
-      <c r="D171" s="19" t="s">
-        <v>2723</v>
-      </c>
-      <c r="E171" s="19" t="s">
-        <v>2724</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>2725</v>
-      </c>
-      <c r="G171" s="3" t="s">
+      <c r="D171" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="G171" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3" t="s">
-        <v>2030</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>2726</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>2727</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>2728</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>2729</v>
-      </c>
-      <c r="N171" s="3"/>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-      <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-      <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="19" t="s">
-        <v>2730</v>
-      </c>
-      <c r="Y171" s="19" t="s">
-        <v>2731</v>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
+      <c r="U171" s="9"/>
+      <c r="V171" s="9"/>
+      <c r="W171" s="9"/>
+      <c r="X171" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y171" s="11" t="s">
+        <v>687</v>
       </c>
       <c r="Z171" s="4" t="s">
-        <v>2732</v>
+        <v>688</v>
       </c>
       <c r="AA171" s="3" t="s">
-        <v>2733</v>
-      </c>
-      <c r="AB171" s="3"/>
+        <v>689</v>
+      </c>
+      <c r="AB171" s="3" t="s">
+        <v>690</v>
+      </c>
       <c r="AC171" s="4" t="s">
-        <v>2035</v>
-      </c>
-      <c r="AD171" s="19" t="s">
-        <v>2036</v>
+        <v>684</v>
+      </c>
+      <c r="AD171" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="AE171" s="12" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="409.6" hidden="1">
+    <row r="172" spans="1:31" ht="409.6">
       <c r="A172" s="9" t="s">
-        <v>680</v>
+        <v>1916</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3">
         <v>0.5</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>676</v>
+        <v>1913</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>677</v>
+        <v>1914</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>678</v>
+        <v>1915</v>
       </c>
       <c r="G172" s="9" t="s">
         <v>24</v>
@@ -43228,16 +43264,16 @@
         <v>679</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>680</v>
+        <v>1916</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>681</v>
+        <v>1917</v>
       </c>
       <c r="L172" s="9" t="s">
-        <v>682</v>
+        <v>1918</v>
       </c>
       <c r="M172" s="9" t="s">
-        <v>683</v>
+        <v>1919</v>
       </c>
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
@@ -43250,16 +43286,16 @@
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
       <c r="X172" s="11" t="s">
-        <v>686</v>
+        <v>1920</v>
       </c>
       <c r="Y172" s="11" t="s">
-        <v>687</v>
+        <v>1921</v>
       </c>
       <c r="Z172" s="4" t="s">
-        <v>688</v>
+        <v>1922</v>
       </c>
       <c r="AA172" s="3" t="s">
-        <v>689</v>
+        <v>1923</v>
       </c>
       <c r="AB172" s="3" t="s">
         <v>690</v>
@@ -43274,22 +43310,22 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="409.6" hidden="1">
+    <row r="173" spans="1:31" ht="409.6">
       <c r="A173" s="9" t="s">
-        <v>1916</v>
+        <v>2608</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3">
         <v>0.5</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1913</v>
+        <v>2605</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>1914</v>
+        <v>2606</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>1915</v>
+        <v>2607</v>
       </c>
       <c r="G173" s="9" t="s">
         <v>24</v>
@@ -43299,16 +43335,16 @@
         <v>679</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>1916</v>
+        <v>2608</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>1917</v>
+        <v>2609</v>
       </c>
       <c r="L173" s="9" t="s">
-        <v>1918</v>
+        <v>2610</v>
       </c>
       <c r="M173" s="9" t="s">
-        <v>1919</v>
+        <v>2611</v>
       </c>
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
@@ -43321,16 +43357,16 @@
       <c r="V173" s="9"/>
       <c r="W173" s="9"/>
       <c r="X173" s="11" t="s">
-        <v>1920</v>
+        <v>2612</v>
       </c>
       <c r="Y173" s="11" t="s">
-        <v>1921</v>
+        <v>2613</v>
       </c>
       <c r="Z173" s="4" t="s">
-        <v>1922</v>
+        <v>2614</v>
       </c>
       <c r="AA173" s="3" t="s">
-        <v>1923</v>
+        <v>2615</v>
       </c>
       <c r="AB173" s="3" t="s">
         <v>690</v>
@@ -43341,7 +43377,7 @@
       <c r="AD173" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="AE173" s="12" t="s">
+      <c r="AE173" s="13" t="s">
         <v>3142</v>
       </c>
     </row>
@@ -44226,75 +44262,75 @@
       </c>
       <c r="AE186" s="14"/>
     </row>
-    <row r="187" spans="1:31" ht="409.6" hidden="1">
-      <c r="A187" s="9" t="s">
-        <v>2608</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>2606</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>2607</v>
-      </c>
-      <c r="G187" s="9" t="s">
+    <row r="187" spans="1:31" ht="409.6">
+      <c r="A187" s="20" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C187" s="22">
+        <v>0</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G187" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="J187" s="9" t="s">
-        <v>2608</v>
-      </c>
-      <c r="K187" s="9" t="s">
-        <v>2609</v>
-      </c>
-      <c r="L187" s="9" t="s">
-        <v>2610</v>
-      </c>
-      <c r="M187" s="9" t="s">
-        <v>2611</v>
-      </c>
-      <c r="N187" s="9"/>
-      <c r="O187" s="9"/>
-      <c r="P187" s="9"/>
-      <c r="Q187" s="9"/>
-      <c r="R187" s="9"/>
-      <c r="S187" s="9"/>
-      <c r="T187" s="9"/>
-      <c r="U187" s="9"/>
-      <c r="V187" s="9"/>
-      <c r="W187" s="9"/>
-      <c r="X187" s="11" t="s">
-        <v>2612</v>
-      </c>
-      <c r="Y187" s="11" t="s">
-        <v>2613</v>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>2726</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3"/>
+      <c r="X187" s="19" t="s">
+        <v>2730</v>
+      </c>
+      <c r="Y187" s="19" t="s">
+        <v>2731</v>
       </c>
       <c r="Z187" s="4" t="s">
-        <v>2614</v>
+        <v>2732</v>
       </c>
       <c r="AA187" s="3" t="s">
-        <v>2615</v>
-      </c>
-      <c r="AB187" s="3" t="s">
-        <v>690</v>
-      </c>
+        <v>2733</v>
+      </c>
+      <c r="AB187" s="3"/>
       <c r="AC187" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="AD187" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE187" s="13" t="s">
-        <v>3142</v>
+        <v>2035</v>
+      </c>
+      <c r="AD187" s="19" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AE187" s="12" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row r="188" spans="1:31" ht="409.6">
@@ -46256,43 +46292,43 @@
       </c>
       <c r="AE216" s="14"/>
     </row>
-    <row r="217" spans="1:31" ht="409.6" hidden="1">
-      <c r="A217" s="10" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B217" s="12" t="s">
+    <row r="217" spans="1:31" ht="409.6">
+      <c r="A217" s="20" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B217" s="22" t="s">
         <v>3152</v>
       </c>
-      <c r="C217" s="12">
+      <c r="C217" s="22">
         <v>0</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>1015</v>
+      <c r="D217" s="19" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E217" s="19" t="s">
+        <v>2317</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1016</v>
+        <v>2318</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H217" s="3"/>
       <c r="I217" s="3" t="s">
-        <v>1017</v>
+        <v>655</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>1485</v>
+        <v>2319</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>1486</v>
+        <v>2320</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>1487</v>
+        <v>2321</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>1488</v>
+        <v>2322</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -46304,29 +46340,29 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
-      <c r="X217" s="4" t="s">
-        <v>1489</v>
-      </c>
-      <c r="Y217" s="4" t="s">
-        <v>1490</v>
+      <c r="X217" s="19" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Y217" s="19" t="s">
+        <v>2324</v>
       </c>
       <c r="Z217" s="4" t="s">
-        <v>1491</v>
+        <v>2325</v>
       </c>
       <c r="AA217" s="3" t="s">
-        <v>1492</v>
+        <v>2326</v>
       </c>
       <c r="AB217" s="3" t="s">
-        <v>1028</v>
+        <v>666</v>
       </c>
       <c r="AC217" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AD217" s="4" t="s">
-        <v>1023</v>
+        <v>660</v>
+      </c>
+      <c r="AD217" s="19" t="s">
+        <v>661</v>
       </c>
       <c r="AE217" s="12" t="s">
-        <v>3151</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="218" spans="1:31" ht="409.6">
@@ -46471,43 +46507,43 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="220" spans="1:31" ht="409.6" hidden="1">
-      <c r="A220" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B220" s="12" t="s">
+    <row r="220" spans="1:31" ht="409.6">
+      <c r="A220" s="20" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B220" s="22" t="s">
         <v>3152</v>
       </c>
-      <c r="C220" s="12">
+      <c r="C220" s="22">
         <v>0</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>1015</v>
+      <c r="D220" s="19" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>2450</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1016</v>
+        <v>2451</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H220" s="3"/>
       <c r="I220" s="3" t="s">
-        <v>1017</v>
+        <v>655</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>1018</v>
+        <v>2452</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>1019</v>
+        <v>2453</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>1020</v>
+        <v>2454</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>1021</v>
+        <v>2455</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
@@ -46519,29 +46555,29 @@
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
-      <c r="X220" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Y220" s="4" t="s">
-        <v>1025</v>
+      <c r="X220" s="19" t="s">
+        <v>2456</v>
+      </c>
+      <c r="Y220" s="19" t="s">
+        <v>2457</v>
       </c>
       <c r="Z220" s="4" t="s">
-        <v>1026</v>
+        <v>2458</v>
       </c>
       <c r="AA220" s="3" t="s">
-        <v>1027</v>
+        <v>2459</v>
       </c>
       <c r="AB220" s="3" t="s">
-        <v>1028</v>
+        <v>666</v>
       </c>
       <c r="AC220" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AD220" s="4" t="s">
-        <v>1023</v>
+        <v>660</v>
+      </c>
+      <c r="AD220" s="19" t="s">
+        <v>661</v>
       </c>
       <c r="AE220" s="12" t="s">
-        <v>3151</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="221" spans="1:31" ht="409.6">
@@ -46686,43 +46722,43 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="223" spans="1:31" ht="409.6" hidden="1">
-      <c r="A223" s="10" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B223" s="12" t="s">
+    <row r="223" spans="1:31" ht="409.6">
+      <c r="A223" s="20" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B223" s="22" t="s">
         <v>3152</v>
       </c>
-      <c r="C223" s="12">
+      <c r="C223" s="22">
         <v>0</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>2991</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>2992</v>
+      <c r="D223" s="19" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>2961</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>2993</v>
+        <v>2962</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H223" s="3"/>
       <c r="I223" s="3" t="s">
-        <v>2994</v>
+        <v>655</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>2995</v>
+        <v>2963</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>2996</v>
+        <v>2964</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>2997</v>
+        <v>2965</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>2998</v>
+        <v>2966</v>
       </c>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
@@ -46734,29 +46770,29 @@
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
-      <c r="X223" s="4" t="s">
-        <v>3001</v>
-      </c>
-      <c r="Y223" s="4" t="s">
-        <v>3002</v>
+      <c r="X223" s="19" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Y223" s="19" t="s">
+        <v>2968</v>
       </c>
       <c r="Z223" s="4" t="s">
-        <v>3003</v>
+        <v>2969</v>
       </c>
       <c r="AA223" s="3" t="s">
-        <v>3004</v>
+        <v>2970</v>
       </c>
       <c r="AB223" s="3" t="s">
-        <v>3005</v>
+        <v>666</v>
       </c>
       <c r="AC223" s="4" t="s">
-        <v>2999</v>
-      </c>
-      <c r="AD223" s="4" t="s">
-        <v>3000</v>
+        <v>660</v>
+      </c>
+      <c r="AD223" s="19" t="s">
+        <v>661</v>
       </c>
       <c r="AE223" s="12" t="s">
-        <v>3151</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="224" spans="1:31" ht="409.6">
@@ -50117,9 +50153,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AE273" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="30">
-      <filters blank="1"/>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE273">
       <sortCondition ref="A1:A273"/>
     </sortState>

--- a/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/Documents/Projects/CMS/Inspec/STIG_Profiles/microsoft-windows-server-2016/cms-ars-3.1-moderate-microsoft-windows-server-2016-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F3383-434D-684A-9BB0-B3085B94B273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D3AA8A-9914-5842-9D75-D76D212C047A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28568,105 +28568,6 @@
 an organization-defined equivalent.
 If an organization-defined title is used, it can in no case contravene or
 modify the language of the message text required in WN16-SO-000150.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This applies to domain controllers. It is NA for other systems.
-Run "MMC".
-Select "Add/Remove Snap-in" from the "File" menu.
-Select "Certificates" in the left pane and click the "Add &gt;" button.
-Select "Computer Account" and click "Next".
-Select the appropriate option for "Select the computer you want this snap-in
-to manage" and click "Finish".
-Click "OK".
-Select and expand the Certificates (Local Computer) entry in the left pane.
-Select and expand the Personal entry in the left pane.
-Select the Certificates entry in the left pane.
-In the right pane, examine the "Issued By" field for the certificate to
-determine the issuing CA.
-If the "Issued By" field of the PKI certificate being used by the domain
-controller does not indicate the issuing CA is part of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>DoD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> CMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PKI or an
-approved ECA, this is a finding.
-If the certificates in use are issued by a CA authorized by the Component's
-CIO, this is a CAT II finding.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">There are multiple sources from which lists of valid </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>DoD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> CMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CAs and approved ECAs
-can be obtained:
-The Global Directory Service (GDS) website provides an online source. The
-address for this site is https://crl.gds.disa.mil.
-DoD CMS Public Key Enablement (PKE) Engineering Support maintains the InstallRoot
-utility to manage DoD CMS supported root certificates on Windows computers, which
-includes a list of authorized CAs. The utility package can be downloaded from
-the PKI and PKE Tools page on IASE:
-http://iase.disa.mil/pki-pke/function_pages/tools.html</t>
     </r>
   </si>
   <si>
@@ -31391,12 +31292,106 @@
 which is unacceptable).</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This applies to domain controllers. It is NA for other systems.
+Run "MMC".
+Select "Add/Remove Snap-in" from the "File" menu.
+Select "Certificates" in the left pane and click the "Add &gt;" button.
+Select "Computer Account" and click "Next".
+Select the appropriate option for "Select the computer you want this snap-in
+to manage" and click "Finish".
+Click "OK".
+Select and expand the Certificates (Local Computer) entry in the left pane.
+Select and expand the Personal entry in the left pane.
+Select the Certificates entry in the left pane.
+In the right pane, examine the "Issued By" field for the certificate to
+determine the issuing CA.
+If the "Issued By" field of the PKI certificate being used by the domain
+controller does not indicate the issuing CA is part of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PKI or an
+approved ECA, this is a finding.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If the certificates in use are issued by a CA authorized by the Component's
+CIO, this is a CAT II finding.
+There are multiple sources from which lists of valid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CAs and approved ECAs
+can be obtained:
+The Global Directory Service (GDS) website provides an online source. The
+address for this site is https://crl.gds.disa.mil.
+DoD CMS Public Key Enablement (PKE) Engineering Support maintains the InstallRoot
+utility to manage DoD CMS supported root certificates on Windows computers, which
+includes a list of authorized CAs. The utility package can be downloaded from
+the PKI and PKE Tools page on IASE:
+http://iase.disa.mil/pki-pke/function_pages/tools.html</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -31650,6 +31645,15 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32154,48 +32158,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -32508,8 +32471,8 @@
   <dimension ref="A1:AF273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A1:AF273"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y175" sqref="Y175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26"/>
@@ -33037,10 +33000,10 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>3152</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>3153</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>629</v>
@@ -33075,10 +33038,10 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="14" t="s">
+        <v>3153</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>3154</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>3155</v>
       </c>
       <c r="Z8" s="13" t="s">
         <v>637</v>
@@ -33104,7 +33067,7 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>2761</v>
@@ -33142,10 +33105,10 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="23" t="s">
+        <v>3164</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>3165</v>
-      </c>
-      <c r="Y9" s="23" t="s">
-        <v>3166</v>
       </c>
       <c r="Z9" s="13" t="s">
         <v>2767</v>
@@ -33162,7 +33125,7 @@
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="26" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="409.6">
@@ -34039,10 +34002,10 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="17" t="s">
+        <v>3149</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>3150</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>3151</v>
       </c>
       <c r="Z22" s="13" t="s">
         <v>1401</v>
@@ -34687,10 +34650,10 @@
         <v>0.5</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>3168</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>3169</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>108</v>
@@ -34725,10 +34688,10 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="Y32" s="27" t="s">
         <v>3170</v>
-      </c>
-      <c r="Y32" s="27" t="s">
-        <v>3171</v>
       </c>
       <c r="Z32" s="13" t="s">
         <v>116</v>
@@ -34745,7 +34708,7 @@
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="26" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="409.6">
@@ -34757,10 +34720,10 @@
         <v>0.5</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>2719</v>
@@ -34795,10 +34758,10 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="17" t="s">
+        <v>3144</v>
+      </c>
+      <c r="Y33" s="17" t="s">
         <v>3145</v>
-      </c>
-      <c r="Y33" s="17" t="s">
-        <v>3146</v>
       </c>
       <c r="Z33" s="13" t="s">
         <v>2726</v>
@@ -34862,7 +34825,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="23" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="Y34" s="17" t="s">
         <v>3132</v>
@@ -34882,7 +34845,7 @@
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="26" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="409.6">
@@ -35602,10 +35565,10 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="23" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Y45" s="23" t="s">
         <v>3173</v>
-      </c>
-      <c r="Y45" s="23" t="s">
-        <v>3174</v>
       </c>
       <c r="Z45" s="13" t="s">
         <v>505</v>
@@ -35622,7 +35585,7 @@
       </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="26" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="409.6">
@@ -35634,7 +35597,7 @@
         <v>0.5</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>1173</v>
@@ -35672,10 +35635,10 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="17" t="s">
+        <v>3147</v>
+      </c>
+      <c r="Y46" s="17" t="s">
         <v>3148</v>
-      </c>
-      <c r="Y46" s="17" t="s">
-        <v>3149</v>
       </c>
       <c r="Z46" s="13" t="s">
         <v>1182</v>
@@ -35837,10 +35800,10 @@
         <v>0.5</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>3159</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>3160</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>2910</v>
@@ -35875,10 +35838,10 @@
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="X49" s="17" t="s">
+        <v>3160</v>
+      </c>
+      <c r="Y49" s="17" t="s">
         <v>3161</v>
-      </c>
-      <c r="Y49" s="17" t="s">
-        <v>3162</v>
       </c>
       <c r="Z49" s="13" t="s">
         <v>2918</v>
@@ -36038,7 +36001,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>2866</v>
@@ -36076,10 +36039,10 @@
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
       <c r="X52" s="17" t="s">
+        <v>3156</v>
+      </c>
+      <c r="Y52" s="17" t="s">
         <v>3157</v>
-      </c>
-      <c r="Y52" s="17" t="s">
-        <v>3158</v>
       </c>
       <c r="Z52" s="13" t="s">
         <v>2872</v>
@@ -37189,7 +37152,7 @@
         <v>0.3</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>3057</v>
@@ -37227,10 +37190,10 @@
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
       <c r="X69" s="17" t="s">
+        <v>3141</v>
+      </c>
+      <c r="Y69" s="17" t="s">
         <v>3142</v>
-      </c>
-      <c r="Y69" s="17" t="s">
-        <v>3143</v>
       </c>
       <c r="Z69" s="13" t="s">
         <v>3066</v>
@@ -43869,13 +43832,13 @@
         <v>1016</v>
       </c>
       <c r="AD166" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AE166" s="27" t="s">
         <v>3175</v>
       </c>
-      <c r="AE166" s="27" t="s">
-        <v>3176</v>
-      </c>
       <c r="AF166" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="167" spans="1:32" ht="409.6">
@@ -44077,13 +44040,13 @@
         <v>1016</v>
       </c>
       <c r="AD169" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AE169" s="27" t="s">
         <v>3175</v>
       </c>
-      <c r="AE169" s="27" t="s">
-        <v>3176</v>
-      </c>
       <c r="AF169" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="170" spans="1:32" ht="409.6">
@@ -44169,10 +44132,10 @@
         <v>0.5</v>
       </c>
       <c r="D171" s="23" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E171" s="23" t="s">
         <v>3177</v>
-      </c>
-      <c r="E171" s="23" t="s">
-        <v>3178</v>
       </c>
       <c r="F171" s="20" t="s">
         <v>674</v>
@@ -44207,10 +44170,10 @@
       <c r="V171" s="20"/>
       <c r="W171" s="20"/>
       <c r="X171" s="23" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Y171" s="23" t="s">
         <v>3179</v>
-      </c>
-      <c r="Y171" s="23" t="s">
-        <v>3180</v>
       </c>
       <c r="Z171" s="13" t="s">
         <v>682</v>
@@ -44231,7 +44194,7 @@
         <v>3124</v>
       </c>
       <c r="AF171" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="172" spans="1:32" ht="409.6">
@@ -44243,10 +44206,10 @@
         <v>0.5</v>
       </c>
       <c r="D172" s="23" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E172" s="23" t="s">
         <v>3181</v>
-      </c>
-      <c r="E172" s="23" t="s">
-        <v>3182</v>
       </c>
       <c r="F172" s="20" t="s">
         <v>1902</v>
@@ -44281,10 +44244,10 @@
       <c r="V172" s="20"/>
       <c r="W172" s="20"/>
       <c r="X172" s="23" t="s">
+        <v>3182</v>
+      </c>
+      <c r="Y172" s="23" t="s">
         <v>3183</v>
-      </c>
-      <c r="Y172" s="23" t="s">
-        <v>3184</v>
       </c>
       <c r="Z172" s="13" t="s">
         <v>1907</v>
@@ -44305,7 +44268,7 @@
         <v>3124</v>
       </c>
       <c r="AF172" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="173" spans="1:32" ht="409.6">
@@ -44378,10 +44341,10 @@
         <v>681</v>
       </c>
       <c r="AE173" s="31" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="AF173" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="174" spans="1:32" ht="409.6">
@@ -44498,7 +44461,7 @@
       <c r="V175" s="12"/>
       <c r="W175" s="12"/>
       <c r="X175" s="21" t="s">
-        <v>3140</v>
+        <v>3189</v>
       </c>
       <c r="Y175" s="23" t="s">
         <v>3128</v>
@@ -44520,7 +44483,7 @@
         <v>3124</v>
       </c>
       <c r="AF175" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="176" spans="1:32" ht="409.6">
@@ -45349,10 +45312,10 @@
         <v>0.5</v>
       </c>
       <c r="D188" s="23" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E188" s="23" t="s">
         <v>3186</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>3187</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>1310</v>
@@ -45387,10 +45350,10 @@
       <c r="V188" s="12"/>
       <c r="W188" s="12"/>
       <c r="X188" s="23" t="s">
+        <v>3187</v>
+      </c>
+      <c r="Y188" s="23" t="s">
         <v>3188</v>
-      </c>
-      <c r="Y188" s="23" t="s">
-        <v>3189</v>
       </c>
       <c r="Z188" s="13" t="s">
         <v>1315</v>
@@ -45407,7 +45370,7 @@
       </c>
       <c r="AE188" s="8"/>
       <c r="AF188" s="28" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="409.6">
